--- a/market/industry.xlsx
+++ b/market/industry.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27425"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\December\codex-kred-marketplace-v2\kredtrade\market\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\December\kredtrade-marketplace\kredtrade\market\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{755EA3BA-5FCA-4FF5-A229-94C8F19E8D93}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD06209E-F928-4690-89E4-18A554E937F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-21720" yWindow="-120" windowWidth="21840" windowHeight="13020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -178,7 +178,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="331" uniqueCount="154">
   <si>
     <t>industry_name</t>
   </si>
@@ -289,6 +289,357 @@
   </si>
   <si>
     <t>industry_img</t>
+  </si>
+  <si>
+    <t>Vegetable Products</t>
+  </si>
+  <si>
+    <t>06</t>
+  </si>
+  <si>
+    <t>Edible vegetables and certain roots and tubers</t>
+  </si>
+  <si>
+    <t>07</t>
+  </si>
+  <si>
+    <t>Edible fruit and nuts; peel of citrus fruit or melons</t>
+  </si>
+  <si>
+    <t>08</t>
+  </si>
+  <si>
+    <t>Coffee, tea, mate and spices</t>
+  </si>
+  <si>
+    <t>09</t>
+  </si>
+  <si>
+    <t>Products of the milling industry; malt; starches; inulin; wheat gluten</t>
+  </si>
+  <si>
+    <t>Oil seeds and oleaginous fruits, miscellaneous grains, seeds and fruit; industrial or medicinal plants; straw and fodder</t>
+  </si>
+  <si>
+    <t>Lac; gums, resins and other vegetable saps and extracts</t>
+  </si>
+  <si>
+    <t>Vegetable plaiting materials; vegetable products not elsewhere specified or included</t>
+  </si>
+  <si>
+    <t>Animal or Vegetable Fats and Oils</t>
+  </si>
+  <si>
+    <t>Animal or vegetable fats and oils and their cleavage products; prepared edible fats; animal or vegetable waxes</t>
+  </si>
+  <si>
+    <t>Preparations of Food</t>
+  </si>
+  <si>
+    <t>Preparations of meat, of fish or of crustaceans, molluscs or other aquatic invertebrates</t>
+  </si>
+  <si>
+    <t>Cocoa and cocoa preparations</t>
+  </si>
+  <si>
+    <t>Preparations of cereals, flour, starch or milk; pastrycooks’ products</t>
+  </si>
+  <si>
+    <t>Preparations of vegetables, fruit, nuts or other parts of plants</t>
+  </si>
+  <si>
+    <t>Miscellaneous edible preparations</t>
+  </si>
+  <si>
+    <t>Beverages, spirits and vinegar</t>
+  </si>
+  <si>
+    <t>Residues and waste from the food industries; prepared animal fodder</t>
+  </si>
+  <si>
+    <t>Tobacco and manufactured tobacco substitutes</t>
+  </si>
+  <si>
+    <t>Mineral Products</t>
+  </si>
+  <si>
+    <t>Salt; sulphur; earths and stone; plastering materials, lime and cement</t>
+  </si>
+  <si>
+    <t>Mineral Products-Salt; sulphur; earths and stone; plastering materials, lime and cement</t>
+  </si>
+  <si>
+    <t>Ores, slag and ash</t>
+  </si>
+  <si>
+    <t>Mineral fuels, mineral oils and products of their distillation; bituminous substances; mineral waxes</t>
+  </si>
+  <si>
+    <t>Chemical Products</t>
+  </si>
+  <si>
+    <t>Inorganic chemicals, organic or inorganic compounds of precious metals, of rare-earth metals, of radioactive elements or of isotopes</t>
+  </si>
+  <si>
+    <t>Inorganic chemicals, organic or inorganic compounds of precious metals, of rare-earth metals, of radioactive</t>
+  </si>
+  <si>
+    <t>elements or of isotopes</t>
+  </si>
+  <si>
+    <t>Pharmaceutical products</t>
+  </si>
+  <si>
+    <t>Fertilizers</t>
+  </si>
+  <si>
+    <t>Tanning or dyeing extracts; tannins and their derivatives; dyes, pigments and other colouring matter; paints and varnishes; putty and other mastics; inks</t>
+  </si>
+  <si>
+    <t>Essential oils and resinoids, perfumery, cosmetic or toilet preparations</t>
+  </si>
+  <si>
+    <t>Soap, organic surface-active agents, washing preparations, lubricating preparations, artificial waxes, prepared waxes, polishing or scouring preparations, candles and similar articles, modelling pastes, dental waxes and dental preparations with a basis of plaster</t>
+  </si>
+  <si>
+    <t>Soap, organic surface-active agents, washing preparations, lubricating preparations, artificial waxes, prepared waxes, polishing or scouring preparations, candles and similar articles, modelling pastes, dental waxes and dental preparations with a basis o...</t>
+  </si>
+  <si>
+    <t>Explosives; pyrotechnic products; matches; pyrophoric alloys; certain combustible preparations</t>
+  </si>
+  <si>
+    <t>Photographic or cinematographic goods</t>
+  </si>
+  <si>
+    <t>Miscellaneous chemical products</t>
+  </si>
+  <si>
+    <t>Plastics and Rubber</t>
+  </si>
+  <si>
+    <t>Rubber and articles thereof</t>
+  </si>
+  <si>
+    <t>Leather and Related Products</t>
+  </si>
+  <si>
+    <t>Raw hides and skins (other than furskins) and leather</t>
+  </si>
+  <si>
+    <t>Articles of leather; saddlery and harness; travel goods, handbags and similar containers; articles of animal gut (other than silkworm gut)</t>
+  </si>
+  <si>
+    <t>Furskins and artificial fur; manufactures thereof</t>
+  </si>
+  <si>
+    <t>Wood and Wood Products</t>
+  </si>
+  <si>
+    <t>Wood and articles of wood; wood charcoal</t>
+  </si>
+  <si>
+    <t>Cork and articles of cork</t>
+  </si>
+  <si>
+    <t>Manufactures of straw, of esparto or of other plaiting materials; basketware and wickerwork</t>
+  </si>
+  <si>
+    <t>Paper Products</t>
+  </si>
+  <si>
+    <t>Pulp of wood or of other fibrous cellulosic material; recovered (waste and scrap) paper or paperboard</t>
+  </si>
+  <si>
+    <t>Pulp of wood or of other fibrous cellulosic material; recovered</t>
+  </si>
+  <si>
+    <t>(waste and scrap) paper or paperboard</t>
+  </si>
+  <si>
+    <t>Printed books, newspapers, pictures and other products of the printing industry; manuscripts, typescripts and plans</t>
+  </si>
+  <si>
+    <t>Textiles and Textile Articles</t>
+  </si>
+  <si>
+    <t>Textiles And Textile Articles</t>
+  </si>
+  <si>
+    <t>Wool, fine or coarse animal hair; horsehair yarn and woven fabric</t>
+  </si>
+  <si>
+    <t>Other vegetable textile fibres; paper yarn and woven fabrics of paper yarn</t>
+  </si>
+  <si>
+    <t>Man-made filaments; strip and the like of man-made textile materials</t>
+  </si>
+  <si>
+    <t>Man-made staple fibres</t>
+  </si>
+  <si>
+    <t>Wadding, felt and nonwovens; special yarns; twine, cordage, ropes and cables and articles thereof</t>
+  </si>
+  <si>
+    <t>Carpets and other textile floor coverings</t>
+  </si>
+  <si>
+    <t>Special woven fabrics; tufted textile fabrics; lace; tapestries; trimmings; embroidery</t>
+  </si>
+  <si>
+    <t>Impregnated, coated, covered or laminated textile fabrics; textile articles of a kind suitable for industrial use</t>
+  </si>
+  <si>
+    <t>Knitted or crocheted fabrics</t>
+  </si>
+  <si>
+    <t>Articles of apparel and clothing accessories, knitted or crocheted</t>
+  </si>
+  <si>
+    <t>Articles of apparel and clothing accessories, not knitted or crocheted</t>
+  </si>
+  <si>
+    <t>Other made up textile articles; sets; worn clothing and worn textile articles; rags</t>
+  </si>
+  <si>
+    <t>Miscellaneous Articles</t>
+  </si>
+  <si>
+    <t>Footwear, gaiters and the like; parts of such articles</t>
+  </si>
+  <si>
+    <t>Headgear and parts thereof</t>
+  </si>
+  <si>
+    <t>Umbrellas, sun umbrellas, walking-sticks, seat-sticks, whips, riding-crops and parts thereof</t>
+  </si>
+  <si>
+    <t>Prepared feathers and down and articles made of feathers or of down; artificial flowers; articles of human hair</t>
+  </si>
+  <si>
+    <t>Building Materials</t>
+  </si>
+  <si>
+    <t>Articles of stone, plaster, cement, asbestos, mica or similar materials</t>
+  </si>
+  <si>
+    <t>Glass and glassware</t>
+  </si>
+  <si>
+    <t>Metals and Related Products</t>
+  </si>
+  <si>
+    <t>Natural or cultured pearls, precious or semi-precious stones, precious metals, metals clad with precious metal, and articles thereof; imitation jewellery; coin</t>
+  </si>
+  <si>
+    <t>Copper and articles thereof</t>
+  </si>
+  <si>
+    <t>Nickel and articles thereof</t>
+  </si>
+  <si>
+    <t>Aluminium and articles thereof</t>
+  </si>
+  <si>
+    <t>(Reserved for possible future use)</t>
+  </si>
+  <si>
+    <t>Lead and articles thereof</t>
+  </si>
+  <si>
+    <t>Zinc and articles thereof</t>
+  </si>
+  <si>
+    <t>Tin and articles thereof</t>
+  </si>
+  <si>
+    <t>Other base metals; cermets; articles thereof</t>
+  </si>
+  <si>
+    <t>Tools and Hardware</t>
+  </si>
+  <si>
+    <t>Tools, implements, cutlery, spoons and forks, of base metal; parts thereof of base metal</t>
+  </si>
+  <si>
+    <t>Miscellaneous articles of base metal</t>
+  </si>
+  <si>
+    <t>Machinery and Mechanical Appliances</t>
+  </si>
+  <si>
+    <t>Nuclear reactors, boilers, machinery and mechanical appliances; parts thereof</t>
+  </si>
+  <si>
+    <t>Electrical machinery and equipment and parts thereof; sound recorders and reproducers, television image and sound recorders and reproducers, and parts and accessories of such articles</t>
+  </si>
+  <si>
+    <t>Transportation Equipment</t>
+  </si>
+  <si>
+    <t>Railway or tramway locomotives, rolling-stock and parts thereof; railway or tramway track fixtures and fittings and parts thereof; mechanical (including electro-mechanical) traffic signalling equipment of all kinds</t>
+  </si>
+  <si>
+    <t>Vehicles other than railway or tramway rolling-stock, and parts and accessories thereof</t>
+  </si>
+  <si>
+    <t>Aircraft, spacecraft, and parts thereof</t>
+  </si>
+  <si>
+    <t>Ships, boats and floating structures</t>
+  </si>
+  <si>
+    <t>Optical and Medical Equipment</t>
+  </si>
+  <si>
+    <t>Optical, photographic, cinematographic, measuring, checking, precision, medical or surgical instruments and apparatus; parts and accessories thereof</t>
+  </si>
+  <si>
+    <t>Timepieces</t>
+  </si>
+  <si>
+    <t>Clocks and watches and parts thereof</t>
+  </si>
+  <si>
+    <t>Musical Instruments</t>
+  </si>
+  <si>
+    <t>Musical instruments; parts and accessories of such articles</t>
+  </si>
+  <si>
+    <t>Arms and Ammunition</t>
+  </si>
+  <si>
+    <t>Arms and ammunition; parts and accessories thereof</t>
+  </si>
+  <si>
+    <t>Furniture and Home Decor</t>
+  </si>
+  <si>
+    <t>Furniture; bedding, mattresses, mattress supports, cushions and similar stuffed furnishing; lamps and lighting fittings, not elsewhere specified or included; illuminated signs, illuminated name-plates and the like; prefabricated building</t>
+  </si>
+  <si>
+    <t>Toys and Sports Equipment</t>
+  </si>
+  <si>
+    <t>Toys, games and sports requisites; parts and accessories thereof</t>
+  </si>
+  <si>
+    <t>Miscellaneous Manufactured Articles</t>
+  </si>
+  <si>
+    <t>Miscellaneous manufactured articles</t>
+  </si>
+  <si>
+    <t>Art and Collectibles</t>
+  </si>
+  <si>
+    <t>Works of art, collectors' pieces and antiques</t>
+  </si>
+  <si>
+    <t>Special Categories</t>
+  </si>
+  <si>
+    <t>Project imports; laboratory chemicals; passengers baggage, personal importations by air or post; ship stores</t>
   </si>
 </sst>
 </file>
@@ -324,7 +675,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -356,11 +707,26 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -379,6 +745,12 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -789,10 +1161,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D15"/>
+  <dimension ref="A1:D93"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView tabSelected="1" topLeftCell="A91" workbookViewId="0">
+      <selection activeCell="C97" sqref="C97"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="27.6" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -806,213 +1178,1305 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="27.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="8" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="27.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="5" t="s">
-        <v>18</v>
+        <v>37</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>3</v>
+        <v>37</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="D2" s="6">
-        <v>10</v>
+        <v>37</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="27.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="5" t="s">
-        <v>18</v>
+        <v>37</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>4</v>
+        <v>39</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="D3" s="6">
-        <v>17</v>
+        <v>39</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="27.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="5" t="s">
-        <v>18</v>
+        <v>37</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>5</v>
+        <v>41</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="D4" s="6">
-        <v>23</v>
+        <v>41</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="27.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="5" t="s">
-        <v>19</v>
+        <v>37</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>8</v>
+        <v>43</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="D5" s="6">
-        <v>52</v>
+        <v>43</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="27.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="5" t="s">
-        <v>19</v>
+        <v>37</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>25</v>
+        <v>3</v>
       </c>
       <c r="D6" s="6">
-        <v>61</v>
+        <v>10</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="27.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="5" t="s">
-        <v>19</v>
+        <v>37</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>10</v>
+        <v>45</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>26</v>
+        <v>45</v>
       </c>
       <c r="D7" s="6">
-        <v>62</v>
+        <v>11</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="27.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="5" t="s">
-        <v>19</v>
+        <v>37</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>11</v>
+        <v>46</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>27</v>
+        <v>46</v>
       </c>
       <c r="D8" s="6">
-        <v>63</v>
+        <v>12</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="27.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="5" t="s">
-        <v>20</v>
+        <v>37</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>6</v>
+        <v>47</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>28</v>
+        <v>47</v>
       </c>
       <c r="D9" s="6">
-        <v>29</v>
+        <v>13</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="27.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="5" t="s">
-        <v>20</v>
+        <v>37</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>7</v>
+        <v>48</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>29</v>
+        <v>48</v>
       </c>
       <c r="D10" s="6">
-        <v>39</v>
+        <v>14</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="27.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="5" t="s">
-        <v>20</v>
+        <v>49</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>12</v>
+        <v>50</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="D11" s="6">
-        <v>69</v>
+        <v>15</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="27.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="5" t="s">
-        <v>20</v>
+        <v>51</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>13</v>
+        <v>52</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>31</v>
+        <v>52</v>
       </c>
       <c r="D12" s="6">
-        <v>72</v>
+        <v>16</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="27.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="5" t="s">
-        <v>20</v>
+        <v>51</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>32</v>
+        <v>4</v>
       </c>
       <c r="D13" s="6">
-        <v>73</v>
+        <v>17</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="27.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A14" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="D14" s="6">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="27.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="D15" s="4">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="27.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="D16" s="4">
         <v>20</v>
       </c>
-      <c r="B14" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="C14" s="5" t="s">
+    </row>
+    <row r="17" spans="1:4" ht="27.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="D17" s="4">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="27.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="D18" s="4">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="27.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="D19" s="4">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" ht="27.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="D20" s="4">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" ht="27.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="C21" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="D21" s="4">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" ht="27.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="B22" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="C22" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="D22" s="4">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" ht="27.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="B23" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="C23" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="D23" s="4">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" ht="27.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="B24" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="C24" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="D24" s="4">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" ht="27.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="B25" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="C25" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="D25" s="4">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" ht="27.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="B26" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="C26" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="D26" s="4">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" ht="27.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="B27" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="C27" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="D27" s="4">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" ht="27.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="B28" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="C28" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="D28" s="4">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" ht="27.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="B29" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="C29" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="D29" s="4">
         <v>33</v>
       </c>
-      <c r="D14" s="6">
+    </row>
+    <row r="30" spans="1:4" ht="27.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="B30" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="C30" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="D30" s="4">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" ht="27.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="B31" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="C31" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="D31" s="4">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" ht="27.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="B32" s="4" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="15" spans="1:4" ht="27.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="B15" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="C15" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="D15" s="6">
+      <c r="C32" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="D32" s="4">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" ht="27.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="B33" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="C33" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="D33" s="4">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" ht="27.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="B34" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C34" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D34" s="4">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" ht="27.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="B35" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="C35" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="D35" s="4">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" ht="27.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="B36" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="C36" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="D36" s="4">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" ht="27.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="B37" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="C37" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="D37" s="4">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" ht="27.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="B38" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="C38" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="D38" s="4">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" ht="27.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="B39" s="4" t="s">
         <v>85</v>
+      </c>
+      <c r="C39" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="D39" s="4">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" ht="27.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A40" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="B40" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="C40" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="D40" s="4">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" ht="27.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A41" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="B41" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="C41" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="D41" s="4">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" ht="27.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A42" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="B42" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="C42" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="D42" s="4">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" ht="27.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A43" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="B43" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="C43" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="D43" s="4">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" ht="27.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A44" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="B44" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="C44" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="D44" s="4">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" ht="27.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A45" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="B45" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="C45" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="D45" s="4">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" ht="27.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A46" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="B46" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="C46" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="D46" s="4">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" ht="27.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A47" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="B47" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C47" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D47" s="4">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" ht="27.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A48" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="B48" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="C48" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="D48" s="4">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" ht="27.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A49" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="B49" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="C49" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="D49" s="4">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" ht="27.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A50" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="B50" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="C50" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="D50" s="4">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" ht="27.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A51" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="B51" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="C51" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="D51" s="4">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" ht="27.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A52" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="B52" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="C52" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="D52" s="4">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" ht="27.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A53" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="B53" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="C53" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="D53" s="4">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" ht="27.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A54" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="B54" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="C54" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="D54" s="4">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" ht="27.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A55" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="B55" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="C55" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="D55" s="4">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" ht="27.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A56" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="B56" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="C56" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="D56" s="4">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" ht="27.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A57" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="B57" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="C57" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="D57" s="4">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" ht="27.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A58" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="B58" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="C58" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="D58" s="4">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" ht="27.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A59" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="B59" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="C59" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="D59" s="4">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" ht="27.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A60" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="B60" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="C60" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="D60" s="4">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" ht="27.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A61" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="B61" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="C61" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="D61" s="4">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" ht="27.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A62" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="B62" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="C62" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="D62" s="4">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" ht="27.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A63" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="B63" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="C63" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="D63" s="4">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" ht="27.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A64" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="B64" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C64" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D64" s="4">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" ht="27.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A65" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="B65" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="C65" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="D65" s="4">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" ht="27.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A66" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="B66" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="C66" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="D66" s="4">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" ht="27.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A67" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="B67" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C67" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D67" s="4">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" ht="27.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A68" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="B68" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C68" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D68" s="4">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" ht="27.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A69" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="B69" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="C69" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="D69" s="4">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" ht="27.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A70" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="B70" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="C70" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="D70" s="4">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" ht="27.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A71" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="B71" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="C71" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="D71" s="4">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" ht="27.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A72" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="B72" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="C72" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="D72" s="4">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" ht="27.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A73" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="B73" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="C73" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="D73" s="4">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" ht="27.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A74" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="B74" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="C74" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="D74" s="4">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" ht="27.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A75" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="B75" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="C75" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="D75" s="4">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" ht="27.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A76" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="B76" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="C76" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="D76" s="4">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" ht="27.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A77" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="B77" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="C77" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="D77" s="4">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" ht="27.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A78" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="B78" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="C78" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="D78" s="4">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" ht="27.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A79" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="B79" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="C79" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="D79" s="4">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" ht="27.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A80" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="B80" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="C80" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="D80" s="4">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" ht="27.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A81" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="B81" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="C81" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="D81" s="4">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" ht="27.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A82" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="B82" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="C82" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="D82" s="4">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" ht="27.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A83" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="B83" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="C83" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="D83" s="4">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" ht="27.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A84" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="B84" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="C84" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="D84" s="4">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" ht="27.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A85" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="B85" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="C85" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="D85" s="4">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" ht="27.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A86" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="B86" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="C86" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="D86" s="4">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" ht="27.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A87" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="B87" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="C87" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="D87" s="4">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" ht="27.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A88" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="B88" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="C88" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="D88" s="4">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" ht="27.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A89" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="B89" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="C89" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="D89" s="4">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" ht="27.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A90" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="B90" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="C90" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="D90" s="4">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" ht="27.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A91" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="B91" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="C91" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="D91" s="4">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" ht="27.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A92" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="B92" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="C92" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="D92" s="4">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" ht="27.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A93" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="B93" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="C93" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="D93" s="4">
+        <v>98</v>
       </c>
     </row>
   </sheetData>
